--- a/src/威胁表.xlsx
+++ b/src/威胁表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djh\Desktop\新建文件夹 (2)\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F231DC60-E92F-4BBD-9F7A-45EA6862E093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309172D0-1616-49A5-A6E6-19133806E9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="1005" windowWidth="21600" windowHeight="11385" xr2:uid="{510E7925-ED1D-4CE2-9730-67A40328905A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{510E7925-ED1D-4CE2-9730-67A40328905A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>威胁编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE8831C-8FD1-42B5-9B8D-7C4CA0608AB7}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A12" sqref="A12:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,13 +643,120 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1015</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1015</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1015</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1015</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1016</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1016</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1016</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1016</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>